--- a/SeleniumTesting/bin/Debug/net8.0-windows/Output 27.02.25.xlsx
+++ b/SeleniumTesting/bin/Debug/net8.0-windows/Output 27.02.25.xlsx
@@ -16,25 +16,67 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
+    <x:t>https://seleniumbase.io/demo_page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Field</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Locator</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Action</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Exception</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Remove</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TextInputFIeld</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>myTextInput</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>True</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Textarea</x:t>
+  </x:si>
+  <x:si>
     <x:t>myTextarea</x:t>
   </x:si>
   <x:si>
-    <x:t>TextInput2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>yo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>True</x:t>
-  </x:si>
-  <x:si>
-    <x:t>text cannot be null (Parameter 'text')</x:t>
+    <x:t>Test2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Checkbox2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click</x:t>
+  </x:si>
+  <x:si>
+    <x:t>checkBoxName3</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -400,35 +442,99 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H1"/>
+  <x:dimension ref="A1:H2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:8">
-      <x:c r="A1" s="1" t="s">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:8">
+      <x:c r="A2" s="1" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B1" s="1" t="s">
+      <x:c r="B2" s="1" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C1" s="1" t="s">
+      <x:c r="C2" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="D1" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E1" s="1" t="s">
+      <x:c r="D2" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F1" s="1" t="s">
+      <x:c r="E2" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G1" s="1" t="s">
+      <x:c r="F2" s="1" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H1" s="1"/>
+      <x:c r="G2" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H2" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:8">
+      <x:c r="A3" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:8">
+      <x:c r="A4" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:8">
+      <x:c r="A5" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
